--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st01.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act10d0 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d0_st01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>zh_CN</t>
   </si>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t xml:space="preserve">Her habits are all left by past trauma, and may take a bit of time to fade.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격할 때 이상한 습관이 있다고 듀나에게 지적을 받아버린 굼은, 자신의 습관을 고치고자 노력했지만 뜻대로 잘되지 않았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그녀의 습관은 전부 과거의 상처가 남긴 것들이었다. 이 습관들을 바꾸기 위해선, 어쩌면 조금 더 시간이 필요할지도 모르겠다.
 </t>
   </si>
 </sst>
@@ -438,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,7 +460,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
